--- a/biology/Zoologie/Culcita_coriacea/Culcita_coriacea.xlsx
+++ b/biology/Zoologie/Culcita_coriacea/Culcita_coriacea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Culcita coriacea est une espèce d'étoiles de mer de la famille des Oreasteridae.
 </t>
@@ -511,10 +523,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce sont des étoiles très particulières, en forme de coussin rebondi, les cinq bras courts et épais n'étant que des triangles obtus émergeant d'un large disque central pentagonal.
-Le corps peut mesurer jusqu'à 30 cm de diamètre, et sa coloration peut être variable, mais généralement jaunâtre (allant de crème à orange), avec des motifs sombres plus ou moins réguliers (dont des lignes sut la crête des bras), et des tubercules marron foncé grossièrement alignés. Sa peau est très rugueuse au toucher[2].
+Le corps peut mesurer jusqu'à 30 cm de diamètre, et sa coloration peut être variable, mais généralement jaunâtre (allant de crème à orange), avec des motifs sombres plus ou moins réguliers (dont des lignes sut la crête des bras), et des tubercules marron foncé grossièrement alignés. Sa peau est très rugueuse au toucher.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Habitat et répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">On trouve cette étoile dans les récifs coralliens de la Mer Rouge, du Golfe d'Aden et du Golfe d'Oman, de la surface à une trentaine de mètres de profondeur[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">On trouve cette étoile dans les récifs coralliens de la Mer Rouge, du Golfe d'Aden et du Golfe d'Oman, de la surface à une trentaine de mètres de profondeur.
 </t>
         </is>
       </c>
@@ -574,7 +590,9 @@
           <t>Écologie et comportement</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La reproduction est gonochorique, et mâles et femelles relâchent leurs gamètes en même temps grâce à un signal phéromonal, en pleine eau, où œufs puis larves vont évoluer parmi le plancton pendant quelques semaines avant de rejoindre le sol.
 Cette étoile se nourrit en dévaginant son estomac par sa bouche. Son régime est très omnivore, et si dans les endroits pauvres elle peut se sustenter du biofilm bactérien qui recouvre le sédiment, elle est également capable de se nourrir des polypes du corail, mais aussi de cadavres ou de certains animaux benthiques plus lents qu'elle.
